--- a/실습3/log.xlsx
+++ b/실습3/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4093,6 +4093,414 @@
         </is>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0:00:00</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1  0:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1:00:00</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1  1:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2:00:00</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1  2:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3:00:00</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1  3:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4:00:00</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1  4:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5:00:00</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1  5:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6:00:00</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1  6:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7:00:00</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1  7:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8:00:00</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1  8:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9:00:00</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1  9:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 10:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 11:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 12:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 13:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 14:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 15:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 16:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 17:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 18:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 19:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 20:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 21:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 22:00:00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2017.12.1</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>log-data at '2017-12-1 23:00:00'</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
